--- a/secuencias/sti/COSCO ASIA.xlsx
+++ b/secuencias/sti/COSCO ASIA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Sigla</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ETA</t>
   </si>
   <si>
-    <t>CAAU</t>
-  </si>
-  <si>
     <t>FFAU</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>10/11/2023  17:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/11/2023 14:12 </t>
   </si>
   <si>
     <t xml:space="preserve">04/11/2023 04:56 </t>
@@ -458,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,34 +498,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>615361</v>
+        <v>422014</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -542,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>422014</v>
+        <v>11328</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -551,22 +539,22 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -574,63 +562,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>11328</v>
+        <v>219530</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>219530</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
